--- a/OSW1x64/doc/1x64标定模板_20200817.xlsx
+++ b/OSW1x64/doc/1x64标定模板_20200817.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="17">
   <si>
     <t>debug</t>
   </si>
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,9 +88,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,30 +125,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,60 +148,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,9 +169,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +208,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,25 +241,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,49 +253,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,7 +277,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +301,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,49 +385,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,19 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +432,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,30 +507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,13 +1040,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U157"/>
+  <dimension ref="A1:U167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
@@ -1306,7 +1306,24 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1314,19 +1331,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>-7650</v>
-      </c>
-      <c r="F17">
-        <v>8177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1334,19 +1348,16 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E18">
-        <v>3124</v>
-      </c>
-      <c r="F18">
-        <v>7857</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1354,19 +1365,16 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>8551</v>
-      </c>
-      <c r="F19">
-        <v>7252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1374,19 +1382,16 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>8166</v>
-      </c>
-      <c r="F20">
-        <v>-2783</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1394,19 +1399,16 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>7778</v>
-      </c>
-      <c r="F21">
-        <v>-8199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1414,19 +1416,33 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E22">
-        <v>-2482</v>
-      </c>
-      <c r="F22">
-        <v>-7730</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1434,19 +1450,16 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1454,36 +1467,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1494,16 +1484,16 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>-7650</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>8177</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1514,16 +1504,16 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3124</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>7857</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1534,16 +1524,16 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>8551</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>7252</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1554,16 +1544,16 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>8166</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>-2783</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1574,16 +1564,16 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>7778</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>-8199</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1594,36 +1584,16 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>-2482</v>
       </c>
       <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
+        <v>-7730</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1637,12 +1607,32 @@
         <v>10</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>0</v>
       </c>
     </row>
@@ -1654,16 +1644,16 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>-11575</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>11925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1674,16 +1664,16 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>-7220</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>12500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1694,16 +1684,16 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E38">
-        <v>5282</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>12860</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1714,16 +1704,16 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>10320</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>13403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1734,16 +1724,16 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>9920</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1754,16 +1744,16 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>11165</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>4735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1774,16 +1764,16 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E42">
-        <v>11925</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>-7320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1794,16 +1784,16 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>-8100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1814,36 +1804,16 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44">
         <v>11</v>
       </c>
-      <c r="D44">
-        <v>9</v>
-      </c>
       <c r="E44">
-        <v>-4524</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>-8798</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45">
-        <v>10</v>
-      </c>
-      <c r="E45">
-        <v>-9881</v>
-      </c>
-      <c r="F45">
-        <v>-9451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1857,13 +1827,33 @@
         <v>11</v>
       </c>
       <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>-11575</v>
+      </c>
+      <c r="F46">
+        <v>11925</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
         <v>11</v>
       </c>
-      <c r="E46">
-        <v>-10703</v>
-      </c>
-      <c r="F46">
-        <v>-3553</v>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>-7220</v>
+      </c>
+      <c r="F47">
+        <v>12500</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1874,16 +1864,16 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>5282</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>12860</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1894,16 +1884,16 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>10320</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>13403</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1914,16 +1904,16 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>10600</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>9920</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1934,16 +1924,16 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>11165</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1954,16 +1944,16 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>11925</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-7320</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1974,16 +1964,16 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>-8100</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1994,16 +1984,16 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>-4524</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>-8798</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2014,16 +2004,16 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>-9881</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>-9451</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2034,36 +2024,16 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>-10703</v>
       </c>
       <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57">
-        <v>10</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
+        <v>-3553</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2077,12 +2047,32 @@
         <v>12</v>
       </c>
       <c r="D58">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
         <v>0</v>
       </c>
     </row>
@@ -2094,10 +2084,10 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2114,10 +2104,10 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2134,10 +2124,10 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2154,10 +2144,10 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2174,10 +2164,10 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2194,10 +2184,10 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D65">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2214,10 +2204,10 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2234,10 +2224,10 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2254,35 +2244,15 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69">
-        <v>10</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
         <v>0</v>
       </c>
     </row>
@@ -2297,12 +2267,32 @@
         <v>13</v>
       </c>
       <c r="D70">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
         <v>0</v>
       </c>
     </row>
@@ -2314,10 +2304,10 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2334,10 +2324,10 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2354,10 +2344,10 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2374,10 +2364,10 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2394,10 +2384,10 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2414,10 +2404,10 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2434,10 +2424,10 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2454,10 +2444,10 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2474,35 +2464,15 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81">
-        <v>10</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
         <v>0</v>
       </c>
     </row>
@@ -2517,12 +2487,32 @@
         <v>14</v>
       </c>
       <c r="D82">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
         <v>0</v>
       </c>
     </row>
@@ -2534,10 +2524,10 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2554,10 +2544,10 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2574,10 +2564,10 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2594,10 +2584,10 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2614,10 +2604,10 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D88">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2634,10 +2624,10 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2654,10 +2644,10 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D90">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2674,10 +2664,10 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D91">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2694,27 +2684,27 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92">
+        <v>11</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
         <v>15</v>
-      </c>
-      <c r="D92">
-        <v>9</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
-        <v>16</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -2722,8 +2712,11 @@
       <c r="E94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +2724,7 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -2739,8 +2732,11 @@
       <c r="E95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -2748,7 +2744,7 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -2756,8 +2752,11 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D97">
         <v>4</v>
@@ -2773,8 +2772,11 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -2790,8 +2792,11 @@
       <c r="E98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -2799,7 +2804,7 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D99">
         <v>6</v>
@@ -2807,8 +2812,11 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +2824,7 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D100">
         <v>7</v>
@@ -2824,8 +2832,11 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -2833,7 +2844,7 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D101">
         <v>8</v>
@@ -2841,8 +2852,11 @@
       <c r="E101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -2850,7 +2864,7 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D102">
         <v>9</v>
@@ -2858,21 +2872,7 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103">
-        <v>10</v>
-      </c>
-      <c r="E103">
+      <c r="F102">
         <v>0</v>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
         <v>16</v>
       </c>
       <c r="D104">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -2904,7 +2904,7 @@
         <v>16</v>
       </c>
       <c r="D105">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>16</v>
       </c>
       <c r="D106">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>16</v>
       </c>
       <c r="D107">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>16</v>
       </c>
       <c r="D108">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>16</v>
       </c>
       <c r="D109">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>16</v>
       </c>
       <c r="D110">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>16</v>
       </c>
       <c r="D111">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>16</v>
       </c>
       <c r="D112">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>16</v>
       </c>
       <c r="D113">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>16</v>
       </c>
       <c r="D114">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>16</v>
       </c>
       <c r="D115">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>16</v>
       </c>
       <c r="D116">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>16</v>
       </c>
       <c r="D117">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>16</v>
       </c>
       <c r="D118">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>16</v>
       </c>
       <c r="D119">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>16</v>
       </c>
       <c r="D120">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>16</v>
       </c>
       <c r="D121">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>16</v>
       </c>
       <c r="D122">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>16</v>
       </c>
       <c r="D123">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>16</v>
       </c>
       <c r="D124">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>16</v>
       </c>
       <c r="D125">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>16</v>
       </c>
       <c r="D126">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>16</v>
       </c>
       <c r="D127">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         <v>16</v>
       </c>
       <c r="D128">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -3312,7 +3312,7 @@
         <v>16</v>
       </c>
       <c r="D129">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>16</v>
       </c>
       <c r="D130">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>16</v>
       </c>
       <c r="D131">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>16</v>
       </c>
       <c r="D132">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>16</v>
       </c>
       <c r="D133">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>16</v>
       </c>
       <c r="D134">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>16</v>
       </c>
       <c r="D135">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>16</v>
       </c>
       <c r="D136">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>16</v>
       </c>
       <c r="D137">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -3465,7 +3465,7 @@
         <v>16</v>
       </c>
       <c r="D138">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -3482,7 +3482,7 @@
         <v>16</v>
       </c>
       <c r="D139">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>16</v>
       </c>
       <c r="D140">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>16</v>
       </c>
       <c r="D141">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -3533,7 +3533,7 @@
         <v>16</v>
       </c>
       <c r="D142">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>16</v>
       </c>
       <c r="D143">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -3567,7 +3567,7 @@
         <v>16</v>
       </c>
       <c r="D144">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>16</v>
       </c>
       <c r="D145">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>16</v>
       </c>
       <c r="D146">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>16</v>
       </c>
       <c r="D147">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>16</v>
       </c>
       <c r="D148">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>16</v>
       </c>
       <c r="D149">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>16</v>
       </c>
       <c r="D150">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -3686,7 +3686,7 @@
         <v>16</v>
       </c>
       <c r="D151">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>16</v>
       </c>
       <c r="D152">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>16</v>
       </c>
       <c r="D153">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         <v>16</v>
       </c>
       <c r="D154">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>16</v>
       </c>
       <c r="D155">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>16</v>
       </c>
       <c r="D156">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -3788,9 +3788,179 @@
         <v>16</v>
       </c>
       <c r="D157">
+        <v>54</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158">
+        <v>55</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159">
+        <v>56</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160">
+        <v>57</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161">
+        <v>58</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162">
+        <v>59</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163">
+        <v>60</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164">
+        <v>61</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165">
+        <v>62</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166">
+        <v>63</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167">
         <v>64</v>
       </c>
-      <c r="E157">
+      <c r="E167">
         <v>0</v>
       </c>
     </row>
@@ -3824,7 +3994,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3841,7 +4011,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/OSW1x64/doc/1x64标定模板_20200817.xlsx
+++ b/OSW1x64/doc/1x64标定模板_20200817.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="10740"/>
+    <workbookView windowWidth="24940" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="EEPROM写入模板" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="21">
   <si>
     <t>debug</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>fsn</t>
+  </si>
+  <si>
+    <t>supplier_id</t>
+  </si>
+  <si>
+    <t>ONET</t>
+  </si>
+  <si>
+    <t>hw_version</t>
+  </si>
+  <si>
+    <t>01.01</t>
   </si>
   <si>
     <t>cal</t>
@@ -74,15 +86,76 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -97,28 +170,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,6 +195,29 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,92 +231,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,7 +253,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,97 +301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,19 +319,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,25 +409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,13 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,54 +444,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,7 +466,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +493,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,6 +526,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,141 +564,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1040,13 +1055,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U167"/>
+  <dimension ref="A1:U169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="13.8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
@@ -1059,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1">
-        <v>12345678</v>
+        <v>45070038</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1102,7 +1120,7 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1"/>
@@ -1136,55 +1154,65 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2.4</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1192,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1209,16 +1237,16 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>5.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1226,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1243,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1260,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>60</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1277,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
         <v>7</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
       <c r="E14">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1294,16 +1322,16 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
         <v>8</v>
       </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
       <c r="E15">
-        <v>-10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1311,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>2.6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1328,16 +1356,16 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>2.4</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1345,16 +1373,16 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>68</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1362,16 +1390,16 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>64.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1379,16 +1407,16 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20">
-        <v>5.3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1396,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>4.7</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1413,16 +1441,16 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1430,16 +1458,16 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23">
-        <v>60</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1447,16 +1475,16 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1464,56 +1492,50 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
         <v>-10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>-7650</v>
-      </c>
-      <c r="F27">
-        <v>8177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>3124</v>
-      </c>
-      <c r="F28">
-        <v>7857</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1521,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>8551</v>
+        <v>-7650</v>
       </c>
       <c r="F29">
-        <v>7252</v>
+        <v>8177</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1541,19 +1563,19 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>8166</v>
+        <v>3124</v>
       </c>
       <c r="F30">
-        <v>-2783</v>
+        <v>7857</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1561,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>7778</v>
+        <v>8551</v>
       </c>
       <c r="F31">
-        <v>-8199</v>
+        <v>7252</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1581,19 +1603,39 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>-2482</v>
+        <v>8166</v>
       </c>
       <c r="F32">
-        <v>-7730</v>
+        <v>-2783</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>7778</v>
+      </c>
+      <c r="F33">
+        <v>-8199</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1601,39 +1643,19 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>-2482</v>
       </c>
       <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
+        <v>-7730</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1641,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1661,13 +1683,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1681,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1701,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1721,13 +1743,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1741,13 +1763,13 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1761,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42">
         <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42">
-        <v>9</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1781,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1801,18 +1823,38 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45">
         <v>10</v>
       </c>
-      <c r="D44">
-        <v>11</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>0</v>
       </c>
     </row>
@@ -1821,39 +1863,19 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E46">
-        <v>-11575</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>11925</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <v>-7220</v>
-      </c>
-      <c r="F47">
-        <v>12500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1861,19 +1883,19 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>5282</v>
+        <v>-11575</v>
       </c>
       <c r="F48">
-        <v>12860</v>
+        <v>11925</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1881,19 +1903,19 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>10320</v>
+        <v>-7220</v>
       </c>
       <c r="F49">
-        <v>13403</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1901,19 +1923,19 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>10600</v>
+        <v>5282</v>
       </c>
       <c r="F50">
-        <v>9920</v>
+        <v>12860</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1921,19 +1943,19 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>11165</v>
+        <v>10320</v>
       </c>
       <c r="F51">
-        <v>4735</v>
+        <v>13403</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1941,19 +1963,19 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>11925</v>
+        <v>10600</v>
       </c>
       <c r="F52">
-        <v>-7320</v>
+        <v>9920</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1961,19 +1983,19 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E53">
-        <v>7800</v>
+        <v>11165</v>
       </c>
       <c r="F53">
-        <v>-8100</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1981,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
         <v>7</v>
       </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54">
-        <v>9</v>
-      </c>
       <c r="E54">
-        <v>-4524</v>
+        <v>11925</v>
       </c>
       <c r="F54">
-        <v>-8798</v>
+        <v>-7320</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2001,19 +2023,19 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>-9881</v>
+        <v>7800</v>
       </c>
       <c r="F55">
-        <v>-9451</v>
+        <v>-8100</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2021,19 +2043,39 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E56">
-        <v>-10703</v>
+        <v>-4524</v>
       </c>
       <c r="F56">
-        <v>-3553</v>
+        <v>-8798</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>-9881</v>
+      </c>
+      <c r="F57">
+        <v>-9451</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2041,39 +2083,19 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>-10703</v>
       </c>
       <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
+        <v>-3553</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2081,13 +2103,13 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2101,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2121,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2141,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2161,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D64">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2181,13 +2203,13 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2201,13 +2223,13 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66">
         <v>7</v>
-      </c>
-      <c r="C66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66">
-        <v>9</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2221,13 +2243,13 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2241,18 +2263,38 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
         <v>0</v>
       </c>
     </row>
@@ -2261,38 +2303,18 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
         <v>0</v>
       </c>
     </row>
@@ -2301,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2321,13 +2343,13 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2341,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2361,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2381,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D76">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2401,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D77">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2421,13 +2443,13 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78">
         <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78">
-        <v>9</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2441,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D79">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2461,18 +2483,38 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D80">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
         <v>0</v>
       </c>
     </row>
@@ -2481,38 +2523,18 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
         <v>0</v>
       </c>
     </row>
@@ -2521,13 +2543,13 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2541,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2561,13 +2583,13 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2581,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2601,13 +2623,13 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D88">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2621,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D89">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2641,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90">
         <v>7</v>
-      </c>
-      <c r="C90" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90">
-        <v>9</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2661,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D91">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2681,18 +2703,38 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D92">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93">
+        <v>10</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
         <v>0</v>
       </c>
     </row>
@@ -2701,38 +2743,18 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
         <v>0</v>
       </c>
     </row>
@@ -2741,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2761,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2781,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -2801,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D99">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2821,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D100">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -2841,13 +2863,13 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D101">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -2861,52 +2883,58 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102">
         <v>7</v>
       </c>
-      <c r="C102" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104">
         <v>9</v>
       </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
       <c r="E104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105">
-        <v>2</v>
-      </c>
-      <c r="E105">
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
@@ -2915,13 +2943,13 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -2932,13 +2960,13 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -2949,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2966,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D109">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -2983,13 +3011,13 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D110">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -3000,13 +3028,13 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D111">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -3017,13 +3045,13 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112">
         <v>7</v>
-      </c>
-      <c r="C112" t="s">
-        <v>16</v>
-      </c>
-      <c r="D112">
-        <v>9</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -3034,13 +3062,13 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D113">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -3051,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D114">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -3068,13 +3096,13 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D115">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -3085,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D116">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -3102,13 +3130,13 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D117">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -3119,13 +3147,13 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D118">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -3136,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D119">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -3153,13 +3181,13 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D120">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -3170,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121">
         <v>16</v>
-      </c>
-      <c r="D121">
-        <v>18</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -3187,13 +3215,13 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D122">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -3204,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D123">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -3221,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D124">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -3238,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D125">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -3255,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D126">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -3272,13 +3300,13 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D127">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -3289,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D128">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -3306,13 +3334,13 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D129">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -3323,13 +3351,13 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D130">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -3340,13 +3368,13 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D131">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -3357,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D132">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -3374,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D133">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -3391,13 +3419,13 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D134">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -3408,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D135">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -3425,13 +3453,13 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D136">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3442,13 +3470,13 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D137">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -3459,13 +3487,13 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D138">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -3476,13 +3504,13 @@
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D139">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -3493,13 +3521,13 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D140">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -3510,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D141">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -3527,13 +3555,13 @@
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D142">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -3544,13 +3572,13 @@
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D143">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -3561,13 +3589,13 @@
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D144">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -3578,13 +3606,13 @@
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D145">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -3595,13 +3623,13 @@
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D146">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -3612,13 +3640,13 @@
         <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D147">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -3629,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D148">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -3646,13 +3674,13 @@
         <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D149">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -3663,13 +3691,13 @@
         <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D150">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -3680,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D151">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -3697,13 +3725,13 @@
         <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D152">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -3714,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D153">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -3731,13 +3759,13 @@
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D154">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -3748,13 +3776,13 @@
         <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D155">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -3765,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D156">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -3782,13 +3810,13 @@
         <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D157">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -3799,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D158">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -3816,13 +3844,13 @@
         <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D159">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -3833,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D160">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -3850,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C161" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D161">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -3867,13 +3895,13 @@
         <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D162">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -3884,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D163">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -3901,13 +3929,13 @@
         <v>0</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D164">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -3918,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D165">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -3935,13 +3963,13 @@
         <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D166">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -3952,20 +3980,54 @@
         <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D167">
+        <v>62</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
+        <v>20</v>
+      </c>
+      <c r="D168">
+        <v>63</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
+        <v>20</v>
+      </c>
+      <c r="D169">
         <v>64</v>
       </c>
-      <c r="E167">
+      <c r="E169">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="S1:U1"/>
@@ -3978,6 +4040,10 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="S4:U4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3994,7 +4060,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4011,7 +4077,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/OSW1x64/doc/1x64标定模板_20200817.xlsx
+++ b/OSW1x64/doc/1x64标定模板_20200817.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24940" windowHeight="10730"/>
+    <workbookView windowWidth="24930" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="EEPROM写入模板" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="22">
   <si>
     <t>debug</t>
   </si>
@@ -80,44 +80,24 @@
   <si>
     <t>il</t>
   </si>
+  <si>
+    <t>check_cali</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -130,47 +110,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,15 +132,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,9 +142,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,14 +164,82 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -253,7 +256,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +322,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,13 +400,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,145 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,17 +450,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,47 +464,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,11 +492,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,133 +567,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,10 +1058,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U169"/>
+  <dimension ref="A1:U171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4024,6 +4027,14 @@
       </c>
       <c r="E169">
         <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
